--- a/calculation/HOCLOOP Calculation/WP2/Task2.2/0 - Resources/Case Studies/input-data-for-benchmarking-v3.xlsx
+++ b/calculation/HOCLOOP Calculation/WP2/Task2.2/0 - Resources/Case Studies/input-data-for-benchmarking-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\R17_MOR22_HOCLOOP\WP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\PycharmProjects\BHEModel2.0\calculation\HOCLOOP Calculation\WP2\Task2.2\0 - Resources\Case Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2B5E0F-AAA9-44EA-B0E9-0C1B807C5BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812D661-BAC2-4342-8453-9F0330AC0EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case a" sheetId="1" r:id="rId1"/>
@@ -62,17 +62,6 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -364,7 +353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -628,7 +617,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,15 +748,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>319635</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>778320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:colOff>921195</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>244725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -786,8 +775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5542200" y="3655080"/>
-          <a:ext cx="601560" cy="335160"/>
+          <a:off x="5405985" y="3877035"/>
+          <a:ext cx="601560" cy="330090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,15 +791,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2004120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>2023170</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1249560</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:colOff>1268610</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,8 +818,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5061600" y="3479400"/>
-          <a:ext cx="1553400" cy="251280"/>
+          <a:off x="4928295" y="3619140"/>
+          <a:ext cx="1426665" cy="266820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,15 +834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:colOff>61470</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>356400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:colOff>413550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -872,8 +861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10221120" y="3476520"/>
-          <a:ext cx="6665400" cy="1138680"/>
+          <a:off x="9738870" y="3524880"/>
+          <a:ext cx="6333780" cy="1225050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,7 +3523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3832,15 +3821,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:L35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -3848,17 +3837,17 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:12" ht="21">
+    <row r="2" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="6:12">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3866,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
@@ -3874,7 +3863,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
@@ -3888,7 +3877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3902,7 +3891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3916,7 +3905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3927,12 +3916,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J10" s="6">
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3940,7 +3929,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3952,7 +3941,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3963,7 +3952,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3960,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3982,7 +3971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +3982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
@@ -4016,7 +4005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4025,7 +4014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
@@ -4034,14 +4023,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="J21" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
@@ -4053,7 +4042,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4065,12 +4054,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J24" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4078,7 +4067,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
@@ -4089,7 +4078,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4100,7 +4089,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
@@ -4111,7 +4100,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>33</v>
       </c>
@@ -4122,7 +4111,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>34</v>
       </c>
@@ -4133,12 +4122,12 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J31" s="6">
         <v>1400</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="3" t="s">
         <v>35</v>
       </c>
@@ -4146,7 +4135,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
         <v>36</v>
       </c>
@@ -4157,7 +4146,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="5" t="s">
         <v>37</v>
       </c>
@@ -4169,7 +4158,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J35" s="17">
         <v>1828.8</v>
       </c>
@@ -4185,11 +4174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="F1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -4205,15 +4194,15 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="6:12" ht="21">
+    <row r="3" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4221,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4229,7 +4218,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
@@ -4257,7 +4246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
@@ -4271,7 +4260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4282,12 +4271,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J11" s="6">
         <v>730</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
@@ -4295,7 +4284,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
@@ -4307,7 +4296,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4307,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>17</v>
       </c>
@@ -4326,7 +4315,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4337,7 +4326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>22</v>
       </c>
@@ -4359,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="9" t="s">
         <v>39</v>
       </c>
@@ -4371,7 +4360,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="11" t="s">
         <v>24</v>
       </c>
@@ -4380,7 +4369,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="13" t="s">
         <v>25</v>
       </c>
@@ -4389,14 +4378,14 @@
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="6:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="J22" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
@@ -4408,7 +4397,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4420,12 +4409,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J25" s="6">
         <v>1750</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
@@ -4433,7 +4422,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>29</v>
       </c>
@@ -4444,7 +4433,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="18" t="s">
         <v>41</v>
       </c>
@@ -4455,7 +4444,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
@@ -4466,7 +4455,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>43</v>
       </c>
@@ -4478,7 +4467,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4489,7 +4478,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="5" t="s">
         <v>33</v>
       </c>
@@ -4500,7 +4489,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
         <v>34</v>
       </c>
@@ -4511,12 +4500,12 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J34" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
         <v>35</v>
       </c>
@@ -4524,7 +4513,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
         <v>36</v>
       </c>
@@ -4535,7 +4524,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
         <v>37</v>
       </c>
@@ -4547,37 +4536,37 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J38" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J39" s="6">
         <v>5250</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J40" s="6">
         <v>5500</v>
       </c>
     </row>
-    <row r="41" spans="6:10">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J41" s="6">
         <v>5750</v>
       </c>
     </row>
-    <row r="42" spans="6:10">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J42" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="43" spans="6:10">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J43" s="6">
         <v>6250</v>
       </c>
     </row>
-    <row r="44" spans="6:10">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J44" s="6">
         <v>6500</v>
       </c>
@@ -4597,7 +4586,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
@@ -4609,17 +4598,17 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:12" ht="21">
+    <row r="2" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="6:12">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4627,7 +4616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -4635,7 +4624,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -4649,7 +4638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="19" t="s">
         <v>47</v>
       </c>
@@ -4663,7 +4652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="21" t="s">
         <v>48</v>
       </c>
@@ -4677,7 +4666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="23" t="s">
         <v>49</v>
       </c>
@@ -4688,7 +4677,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10" s="23" t="s">
         <v>50</v>
       </c>
@@ -4699,7 +4688,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="23" t="s">
         <v>51</v>
       </c>
@@ -4710,7 +4699,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
@@ -4721,7 +4710,7 @@
         <v>2062.5</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4732,7 +4721,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4751,7 +4740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>16</v>
       </c>
@@ -4762,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4773,7 +4762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
         <v>18</v>
       </c>
@@ -4784,7 +4773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
@@ -4795,7 +4784,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="30" t="s">
         <v>27</v>
       </c>
@@ -4807,7 +4796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
@@ -4815,7 +4804,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>29</v>
       </c>
@@ -4826,7 +4815,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
         <v>31</v>
       </c>
@@ -4837,7 +4826,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
         <v>54</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="31" t="s">
         <v>32</v>
       </c>
@@ -4860,7 +4849,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="31" t="s">
         <v>34</v>
       </c>
@@ -4871,12 +4860,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>36</v>
       </c>
@@ -4884,7 +4873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
         <v>37</v>
       </c>
@@ -4892,7 +4881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="18" t="s">
         <v>55</v>
       </c>
@@ -4916,7 +4905,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
@@ -4929,12 +4918,12 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="6:12">
+    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4945,7 +4934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="6:12">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="19" t="s">
         <v>45</v>
       </c>
@@ -4957,7 +4946,7 @@
         <v>1.4018785714285715</v>
       </c>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="19" t="s">
         <v>46</v>
       </c>
@@ -4975,7 +4964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="19" t="s">
         <v>47</v>
       </c>
@@ -4993,7 +4982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="21" t="s">
         <v>48</v>
       </c>
@@ -5011,7 +5000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="23" t="s">
         <v>49</v>
       </c>
@@ -5026,7 +5015,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="23" t="s">
         <v>50</v>
       </c>
@@ -5041,7 +5030,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10" s="23" t="s">
         <v>51</v>
       </c>
@@ -5056,7 +5045,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
@@ -5068,7 +5057,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
@@ -5079,7 +5068,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
@@ -5098,7 +5087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
@@ -5109,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
@@ -5120,7 +5109,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
@@ -5131,7 +5120,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="5" t="s">
         <v>52</v>
       </c>
@@ -5142,12 +5131,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J20" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
@@ -5155,7 +5144,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>29</v>
       </c>
@@ -5166,7 +5155,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="18" t="s">
         <v>41</v>
       </c>
@@ -5177,7 +5166,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
@@ -5188,7 +5177,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
         <v>43</v>
       </c>
@@ -5200,7 +5189,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
         <v>32</v>
       </c>
@@ -5211,7 +5200,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>33</v>
       </c>
@@ -5222,7 +5211,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
         <v>34</v>
       </c>
@@ -5233,23 +5222,23 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
       <c r="J29" s="6">
         <v>3250</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J30" s="6">
         <v>3500</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J31" s="6">
         <v>3750</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="3" t="s">
         <v>35</v>
       </c>
@@ -5257,7 +5246,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
         <v>36</v>
       </c>
@@ -5268,7 +5257,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="5" t="s">
         <v>37</v>
       </c>
@@ -5279,7 +5268,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="18" t="s">
         <v>55</v>
       </c>
@@ -5290,37 +5279,37 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J36" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J37" s="6">
         <v>5250</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J38" s="6">
         <v>5500</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J39" s="6">
         <v>5750</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J40" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="41" spans="6:10">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J41" s="6">
         <v>6250</v>
       </c>
     </row>
-    <row r="42" spans="6:10">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J42" s="6">
         <v>6500</v>
       </c>
@@ -5341,7 +5330,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
@@ -5353,17 +5342,17 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:12" ht="21">
+    <row r="2" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="6:12">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5371,7 +5360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5379,7 +5368,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
@@ -5393,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
@@ -5407,7 +5396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5421,7 +5410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
@@ -5432,12 +5421,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J10" s="6">
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5445,7 +5434,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
@@ -5457,7 +5446,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
@@ -5468,7 +5457,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
@@ -5476,7 +5465,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
@@ -5487,7 +5476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
@@ -5498,7 +5487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
@@ -5509,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
@@ -5521,7 +5510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
@@ -5530,7 +5519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
@@ -5539,14 +5528,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="J21" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
@@ -5558,7 +5547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
@@ -5570,12 +5559,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J24" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -5583,7 +5572,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +5583,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
@@ -5605,7 +5594,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
@@ -5616,7 +5605,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>33</v>
       </c>
@@ -5627,7 +5616,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>34</v>
       </c>
@@ -5638,7 +5627,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="28" t="s">
         <v>57</v>
       </c>
@@ -5649,7 +5638,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="28" t="s">
         <v>58</v>
       </c>
@@ -5660,7 +5649,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="28" t="s">
         <v>59</v>
       </c>
@@ -5671,12 +5660,12 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J34" s="6">
         <v>1700</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
         <v>35</v>
       </c>
@@ -5684,7 +5673,7 @@
         <v>1828.8</v>
       </c>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
         <v>36</v>
       </c>
@@ -5692,7 +5681,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
         <v>37</v>
       </c>
@@ -5720,7 +5709,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -5736,15 +5725,15 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="6:12" ht="21">
+    <row r="3" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
@@ -5752,7 +5741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
@@ -5760,7 +5749,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
@@ -5774,7 +5763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
@@ -5788,7 +5777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
@@ -5802,7 +5791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5813,12 +5802,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J11" s="6">
         <v>730</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5826,7 +5815,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
@@ -5838,7 +5827,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>16</v>
       </c>
@@ -5849,7 +5838,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>17</v>
       </c>
@@ -5857,7 +5846,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5868,7 +5857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
@@ -5879,7 +5868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5890,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="9" t="s">
         <v>39</v>
       </c>
@@ -5902,7 +5891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="11" t="s">
         <v>24</v>
       </c>
@@ -5911,7 +5900,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="13" t="s">
         <v>25</v>
       </c>
@@ -5920,14 +5909,14 @@
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="6:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="J22" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
@@ -5939,7 +5928,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
         <v>27</v>
       </c>
@@ -5951,12 +5940,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J25" s="6">
         <v>1750</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
@@ -5964,7 +5953,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>29</v>
       </c>
@@ -5975,7 +5964,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="18" t="s">
         <v>41</v>
       </c>
@@ -5986,7 +5975,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
@@ -5997,7 +5986,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>43</v>
       </c>
@@ -6009,7 +5998,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
         <v>32</v>
       </c>
@@ -6020,7 +6009,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="5" t="s">
         <v>33</v>
       </c>
@@ -6031,7 +6020,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
         <v>34</v>
       </c>
@@ -6042,7 +6031,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="28" t="s">
         <v>57</v>
       </c>
@@ -6053,7 +6042,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="28" t="s">
         <v>58</v>
       </c>
@@ -6064,7 +6053,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="28" t="s">
         <v>59</v>
       </c>
@@ -6075,12 +6064,12 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J37" s="6">
         <v>4750</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
@@ -6088,7 +6077,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39" s="5" t="s">
         <v>36</v>
       </c>
@@ -6099,7 +6088,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
         <v>37</v>
       </c>
@@ -6111,22 +6100,22 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="41" spans="6:10">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J41" s="6">
         <v>5750</v>
       </c>
     </row>
-    <row r="42" spans="6:10">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J42" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="43" spans="6:10">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J43" s="6">
         <v>6250</v>
       </c>
     </row>
-    <row r="44" spans="6:10">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J44" s="6">
         <v>6500</v>
       </c>
@@ -6150,7 +6139,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
@@ -6162,17 +6151,17 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:12" ht="21">
+    <row r="2" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="6:12">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6177,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6230,7 +6219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
@@ -6241,12 +6230,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J10" s="6">
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
@@ -6254,7 +6243,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
@@ -6266,7 +6255,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
@@ -6277,7 +6266,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
@@ -6285,7 +6274,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
@@ -6296,7 +6285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
@@ -6307,7 +6296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
@@ -6318,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="15" thickBot="1">
+    <row r="18" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
@@ -6330,7 +6319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
@@ -6339,7 +6328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
@@ -6348,14 +6337,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="J21" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6367,7 +6356,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
@@ -6379,12 +6368,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J24" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -6392,7 +6381,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
@@ -6403,7 +6392,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
@@ -6414,7 +6403,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
@@ -6425,7 +6414,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>33</v>
       </c>
@@ -6440,7 +6429,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>34</v>
       </c>
@@ -6455,7 +6444,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="33" t="s">
         <v>60</v>
       </c>
@@ -6470,7 +6459,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="33" t="s">
         <v>61</v>
       </c>
@@ -6482,7 +6471,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="33" t="s">
         <v>62</v>
       </c>
@@ -6493,7 +6482,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="33" t="s">
         <v>63</v>
       </c>
@@ -6501,14 +6490,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H32:H35" si="0">+G34*1000</f>
+        <f t="shared" ref="H34" si="0">+G34*1000</f>
         <v>7</v>
       </c>
       <c r="J34" s="6">
         <v>1700</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="33" t="s">
         <v>64</v>
       </c>
@@ -6520,7 +6509,7 @@
         <v>1828.8</v>
       </c>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="33" t="s">
         <v>62</v>
       </c>
@@ -6529,12 +6518,12 @@
         <v>43.268000000000001</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39" s="5" t="s">
         <v>36</v>
       </c>
@@ -6542,7 +6531,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
         <v>37</v>
       </c>
@@ -6566,7 +6555,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
@@ -6578,17 +6567,17 @@
     <col min="13" max="64" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="21">
+    <row r="1" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:12" ht="21">
+    <row r="2" spans="6:12" ht="21" x14ac:dyDescent="0.35">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="6:12">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +6585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="6:12">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
@@ -6604,7 +6593,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="6" spans="6:12">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
@@ -6618,7 +6607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6646,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
@@ -6657,12 +6646,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J10" s="6">
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
@@ -6670,7 +6659,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
@@ -6682,7 +6671,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
@@ -6693,7 +6682,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="14" spans="6:12">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
@@ -6701,7 +6690,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="15" spans="6:12">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
@@ -6712,7 +6701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="6:12">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
@@ -6723,7 +6712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
@@ -6734,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="15" thickBot="1">
+    <row r="18" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
@@ -6746,7 +6735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
@@ -6755,7 +6744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="6:10">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
@@ -6764,14 +6753,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="6:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="J21" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6783,7 +6772,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
@@ -6795,12 +6784,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J24" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -6808,7 +6797,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="6:10">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
@@ -6819,7 +6808,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
@@ -6830,7 +6819,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
@@ -6841,7 +6830,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>33</v>
       </c>
@@ -6852,7 +6841,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="6:10">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
         <v>34</v>
       </c>
@@ -6863,7 +6852,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="6:10">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" s="33" t="s">
         <v>60</v>
       </c>
@@ -6874,7 +6863,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="32" spans="6:10">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="33" t="s">
         <v>61</v>
       </c>
@@ -6885,7 +6874,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="33" t="s">
         <v>62</v>
       </c>
@@ -6896,7 +6885,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="33" t="s">
         <v>63</v>
       </c>
@@ -6907,7 +6896,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="33" t="s">
         <v>64</v>
       </c>
@@ -6918,7 +6907,7 @@
         <v>1828.8</v>
       </c>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="33" t="s">
         <v>62</v>
       </c>
@@ -6927,12 +6916,12 @@
         <v>43.268000000000001</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39" s="5" t="s">
         <v>36</v>
       </c>
@@ -6940,7 +6929,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
         <v>37</v>
       </c>
@@ -6957,26 +6946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1044762f-b7a3-4d22-a215-484d86598452">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ae2a25e6-193c-48e1-b57c-cb9bfd86a88c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FBE0715D93303A43A5519CD44011EEB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="45290220d9488d3a9ccc82f4939b4917">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1044762f-b7a3-4d22-a215-484d86598452" xmlns:ns3="ae2a25e6-193c-48e1-b57c-cb9bfd86a88c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d313fc75e2dd43b5958aa01d696a53c" ns2:_="" ns3:_="">
     <xsd:import namespace="1044762f-b7a3-4d22-a215-484d86598452"/>
@@ -7205,14 +7174,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1044762f-b7a3-4d22-a215-484d86598452">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ae2a25e6-193c-48e1-b57c-cb9bfd86a88c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE0E8AC-71C6-4CC5-BD70-BD4CE328A186}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AE0FD8-11ED-4CD2-B88C-65658998A783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1044762f-b7a3-4d22-a215-484d86598452"/>
+    <ds:schemaRef ds:uri="ae2a25e6-193c-48e1-b57c-cb9bfd86a88c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D488AFDB-3C3F-485A-A0FE-B205AE3F5B55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D488AFDB-3C3F-485A-A0FE-B205AE3F5B55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1044762f-b7a3-4d22-a215-484d86598452"/>
+    <ds:schemaRef ds:uri="ae2a25e6-193c-48e1-b57c-cb9bfd86a88c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AE0FD8-11ED-4CD2-B88C-65658998A783}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE0E8AC-71C6-4CC5-BD70-BD4CE328A186}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>